--- a/study-easyexcel/src/main/resources/excel/IndexOrName.xlsx
+++ b/study-easyexcel/src/main/resources/excel/IndexOrName.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>zhaoliu@xdf.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -434,7 +438,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -447,8 +451,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -461,8 +468,11 @@
       <c r="D2">
         <v>129.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -475,8 +485,11 @@
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,8 +502,11 @@
       <c r="D4">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -503,16 +519,19 @@
       <c r="D5">
         <v>132.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
   </sheetData>

--- a/study-easyexcel/src/main/resources/excel/IndexOrName.xlsx
+++ b/study-easyexcel/src/main/resources/excel/IndexOrName.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
